--- a/homework/期中作业-分数-学生.xlsx
+++ b/homework/期中作业-分数-学生.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1AFE40FD-48C7-48F8-BD4D-310ADC386919}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,7 +14,7 @@
     <definedName name="name" localSheetId="0">Sheet1!$A$1:$A$170</definedName>
     <definedName name="name_result2" localSheetId="0">Sheet1!$A$1:$C$170</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,8 +24,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="name" type="6" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="name" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="C:\Users\ADMIN\Desktop\name.csv" comma="1">
       <textFields count="4">
         <textField/>
@@ -34,7 +35,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="name_result21" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="name_result21" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="C:\Users\ADMIN\Desktop\name_result2.csv" comma="1">
       <textFields count="7">
         <textField/>
@@ -74,18 +75,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -122,78 +123,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -206,11 +139,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="name" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="name_result2" connectionId="2" xr16:uid="{00000000-0016-0000-0000-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="name_result2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="name" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -221,7 +154,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -475,19 +408,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -504,7 +437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>11331213</v>
       </c>
@@ -516,13 +449,13 @@
       </c>
       <c r="D2">
         <f>RANK(C2,C$2:C$170)</f>
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>12330216</v>
       </c>
@@ -537,10 +470,10 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>99.482352941176472</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>99.494252873563212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>14323088</v>
       </c>
@@ -555,10 +488,10 @@
         <v>72</v>
       </c>
       <c r="E4">
-        <v>90.811764705882354</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>91.022988505747122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>15310022</v>
       </c>
@@ -570,13 +503,13 @@
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E5">
-        <v>90.294117647058826</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>90.390804597701148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>15310053</v>
       </c>
@@ -591,10 +524,10 @@
         <v>58</v>
       </c>
       <c r="E6">
-        <v>92.623529411764707</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>92.793103448275858</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>15331001</v>
       </c>
@@ -606,13 +539,13 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E7">
-        <v>89.776470588235298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>89.758620689655174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>15331002</v>
       </c>
@@ -627,10 +560,10 @@
         <v>71</v>
       </c>
       <c r="E8">
-        <v>90.941176470588232</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>91.149425287356323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>15331003</v>
       </c>
@@ -645,10 +578,10 @@
         <v>58</v>
       </c>
       <c r="E9">
-        <v>92.623529411764707</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>92.793103448275858</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>15331005</v>
       </c>
@@ -660,13 +593,13 @@
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>15331007</v>
       </c>
@@ -681,10 +614,10 @@
         <v>58</v>
       </c>
       <c r="E11">
-        <v>92.623529411764707</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>92.793103448275858</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>15331010</v>
       </c>
@@ -699,10 +632,10 @@
         <v>19</v>
       </c>
       <c r="E12">
-        <v>97.670588235294119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>97.724137931034477</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>15331012</v>
       </c>
@@ -717,10 +650,10 @@
         <v>55</v>
       </c>
       <c r="E13">
-        <v>93.011764705882356</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>93.172413793103445</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>15331014</v>
       </c>
@@ -735,10 +668,10 @@
         <v>19</v>
       </c>
       <c r="E14">
-        <v>97.670588235294119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>97.724137931034477</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15331015</v>
       </c>
@@ -753,10 +686,10 @@
         <v>31</v>
       </c>
       <c r="E15">
-        <v>96.117647058823536</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>96.206896551724142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15331016</v>
       </c>
@@ -771,10 +704,10 @@
         <v>58</v>
       </c>
       <c r="E16">
-        <v>92.623529411764707</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>92.793103448275858</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15331017</v>
       </c>
@@ -786,13 +719,13 @@
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E17">
-        <v>90.423529411764704</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>90.517241379310349</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15331019</v>
       </c>
@@ -804,13 +737,13 @@
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E18">
         <v>86.470588235294116</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>15331022</v>
       </c>
@@ -822,13 +755,13 @@
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E19">
         <v>86.17647058823529</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>15331037</v>
       </c>
@@ -840,13 +773,13 @@
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>15331042</v>
       </c>
@@ -861,10 +794,10 @@
         <v>68</v>
       </c>
       <c r="E21">
-        <v>91.329411764705881</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>91.52873563218391</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>15331043</v>
       </c>
@@ -879,10 +812,10 @@
         <v>31</v>
       </c>
       <c r="E22">
-        <v>96.117647058823536</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>96.206896551724142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>15331044</v>
       </c>
@@ -897,10 +830,10 @@
         <v>31</v>
       </c>
       <c r="E23">
-        <v>96.117647058823536</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>96.206896551724142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>15331046</v>
       </c>
@@ -915,10 +848,10 @@
         <v>42</v>
       </c>
       <c r="E24">
-        <v>94.694117647058818</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>94.816091954022994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>15331051</v>
       </c>
@@ -930,13 +863,13 @@
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E25">
         <v>86.17647058823529</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>15331053</v>
       </c>
@@ -948,13 +881,13 @@
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E26">
         <v>84.705882352941174</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>15331062</v>
       </c>
@@ -969,10 +902,10 @@
         <v>31</v>
       </c>
       <c r="E27">
-        <v>96.117647058823536</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>96.206896551724142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>15331065</v>
       </c>
@@ -984,13 +917,13 @@
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>15331067</v>
       </c>
@@ -1002,13 +935,13 @@
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E29">
         <v>80.147058823529406</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>15331068</v>
       </c>
@@ -1020,13 +953,13 @@
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E30">
         <v>87.647058823529406</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>15331070</v>
       </c>
@@ -1038,13 +971,13 @@
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E31">
         <v>88.67647058823529</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>15331072</v>
       </c>
@@ -1056,13 +989,13 @@
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E32">
         <v>80.588235294117652</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>15331073</v>
       </c>
@@ -1074,13 +1007,13 @@
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E33">
         <v>87.205882352941174</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>15331074</v>
       </c>
@@ -1095,10 +1028,10 @@
         <v>55</v>
       </c>
       <c r="E34">
-        <v>93.011764705882356</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>93.172413793103445</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>15331075</v>
       </c>
@@ -1110,13 +1043,13 @@
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E35">
         <v>87.647058823529406</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>15331082</v>
       </c>
@@ -1128,13 +1061,13 @@
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E36">
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>15331089</v>
       </c>
@@ -1146,13 +1079,13 @@
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E37">
         <v>82.647058823529406</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>15331094</v>
       </c>
@@ -1164,13 +1097,13 @@
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E38">
         <v>83.82352941176471</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>15331095</v>
       </c>
@@ -1182,13 +1115,13 @@
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E39">
         <v>89.705882352941174</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>15331096</v>
       </c>
@@ -1203,10 +1136,10 @@
         <v>42</v>
       </c>
       <c r="E40">
-        <v>94.694117647058818</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>94.816091954022994</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>15331099</v>
       </c>
@@ -1221,10 +1154,10 @@
         <v>19</v>
       </c>
       <c r="E41">
-        <v>97.670588235294119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>97.724137931034477</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>15331100</v>
       </c>
@@ -1236,13 +1169,13 @@
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>15331106</v>
       </c>
@@ -1257,10 +1190,10 @@
         <v>55</v>
       </c>
       <c r="E43">
-        <v>93.011764705882356</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>93.172413793103445</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>15331108</v>
       </c>
@@ -1272,13 +1205,13 @@
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E44">
         <v>84.558823529411768</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>15331109</v>
       </c>
@@ -1290,13 +1223,13 @@
       </c>
       <c r="D45">
         <f t="shared" si="0"/>
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E45">
         <v>80.441176470588232</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>15331110</v>
       </c>
@@ -1308,13 +1241,13 @@
       </c>
       <c r="D46">
         <f t="shared" si="0"/>
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E46">
         <v>80.735294117647058</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>15331112</v>
       </c>
@@ -1329,10 +1262,10 @@
         <v>42</v>
       </c>
       <c r="E47">
-        <v>94.694117647058818</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>94.816091954022994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>15331115</v>
       </c>
@@ -1347,10 +1280,10 @@
         <v>19</v>
       </c>
       <c r="E48">
-        <v>97.670588235294119</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>97.724137931034477</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>15331116</v>
       </c>
@@ -1365,10 +1298,10 @@
         <v>62</v>
       </c>
       <c r="E49">
-        <v>92.10588235294118</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>92.287356321839084</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>15331119</v>
       </c>
@@ -1383,10 +1316,10 @@
         <v>70</v>
       </c>
       <c r="E50">
-        <v>91.07058823529411</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>91.275862068965523</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>15331121</v>
       </c>
@@ -1401,10 +1334,10 @@
         <v>72</v>
       </c>
       <c r="E51">
-        <v>90.811764705882354</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>91.022988505747122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>15331122</v>
       </c>
@@ -1419,10 +1352,10 @@
         <v>52</v>
       </c>
       <c r="E52">
-        <v>93.4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>93.551724137931032</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>15331124</v>
       </c>
@@ -1437,10 +1370,10 @@
         <v>62</v>
       </c>
       <c r="E53">
-        <v>92.10588235294118</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>92.287356321839084</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>15331128</v>
       </c>
@@ -1452,13 +1385,13 @@
       </c>
       <c r="D54">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E54">
-        <v>89.776470588235298</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>89.758620689655174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>15331129</v>
       </c>
@@ -1470,13 +1403,13 @@
       </c>
       <c r="D55">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E55">
-        <v>89.776470588235298</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>89.758620689655174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>15331133</v>
       </c>
@@ -1488,13 +1421,13 @@
       </c>
       <c r="D56">
         <f t="shared" si="0"/>
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>15331134</v>
       </c>
@@ -1506,13 +1439,13 @@
       </c>
       <c r="D57">
         <f t="shared" si="0"/>
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E57">
         <v>86.911764705882348</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>15331135</v>
       </c>
@@ -1524,13 +1457,13 @@
       </c>
       <c r="D58">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E58">
-        <v>90.294117647058826</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>90.390804597701148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>15331137</v>
       </c>
@@ -1542,13 +1475,13 @@
       </c>
       <c r="D59">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E59">
-        <v>89.129411764705878</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>89.1264367816092</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>15331138</v>
       </c>
@@ -1560,13 +1493,13 @@
       </c>
       <c r="D60">
         <f t="shared" si="0"/>
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E60">
         <v>82.205882352941174</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>15331141</v>
       </c>
@@ -1581,10 +1514,10 @@
         <v>62</v>
       </c>
       <c r="E61">
-        <v>92.10588235294118</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>92.287356321839084</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>15331154</v>
       </c>
@@ -1596,13 +1529,13 @@
       </c>
       <c r="D62">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E62">
         <v>81.32352941176471</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>15331155</v>
       </c>
@@ -1614,13 +1547,13 @@
       </c>
       <c r="D63">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E63">
         <v>82.058823529411768</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>15331157</v>
       </c>
@@ -1632,13 +1565,13 @@
       </c>
       <c r="D64">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E64">
         <v>84.411764705882348</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>15331159</v>
       </c>
@@ -1653,28 +1586,28 @@
         <v>15</v>
       </c>
       <c r="E65">
-        <v>98.188235294117646</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>98.229885057471265</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>15331166</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>0.99072899999999997</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>0.99060899999999996</v>
       </c>
       <c r="D66">
         <f t="shared" si="0"/>
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="E66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>90.137931034482762</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>15331168</v>
       </c>
@@ -1686,13 +1619,13 @@
       </c>
       <c r="D67">
         <f t="shared" ref="D67:D130" si="1">RANK(C67,C$2:C$170)</f>
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E67">
         <v>88.82352941176471</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>15331173</v>
       </c>
@@ -1704,13 +1637,13 @@
       </c>
       <c r="D68">
         <f t="shared" si="1"/>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E68">
         <v>88.382352941176464</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>15331175</v>
       </c>
@@ -1725,10 +1658,10 @@
         <v>19</v>
       </c>
       <c r="E69">
-        <v>97.670588235294119</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>97.724137931034477</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>15331176</v>
       </c>
@@ -1740,13 +1673,13 @@
       </c>
       <c r="D70">
         <f t="shared" si="1"/>
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E70">
         <v>82.5</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>15331185</v>
       </c>
@@ -1761,10 +1694,10 @@
         <v>62</v>
       </c>
       <c r="E71">
-        <v>92.10588235294118</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>92.287356321839084</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>15331187</v>
       </c>
@@ -1779,10 +1712,10 @@
         <v>31</v>
       </c>
       <c r="E72">
-        <v>96.117647058823536</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>96.206896551724142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>15331191</v>
       </c>
@@ -1797,10 +1730,10 @@
         <v>42</v>
       </c>
       <c r="E73">
-        <v>94.694117647058818</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>94.816091954022994</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>15331192</v>
       </c>
@@ -1812,13 +1745,13 @@
       </c>
       <c r="D74">
         <f t="shared" si="1"/>
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E74">
         <v>85.882352941176464</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>15331194</v>
       </c>
@@ -1830,13 +1763,13 @@
       </c>
       <c r="D75">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E75">
-        <v>89.388235294117649</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>89.379310344827587</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>15331195</v>
       </c>
@@ -1851,10 +1784,10 @@
         <v>10</v>
       </c>
       <c r="E76">
-        <v>98.835294117647052</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>98.862068965517238</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>15331197</v>
       </c>
@@ -1866,13 +1799,13 @@
       </c>
       <c r="D77">
         <f t="shared" si="1"/>
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E77">
         <v>87.058823529411768</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>15331200</v>
       </c>
@@ -1887,10 +1820,10 @@
         <v>7</v>
       </c>
       <c r="E78">
-        <v>99.223529411764702</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>99.241379310344826</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>15331201</v>
       </c>
@@ -1902,13 +1835,13 @@
       </c>
       <c r="D79">
         <f t="shared" si="1"/>
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>15331208</v>
       </c>
@@ -1920,13 +1853,13 @@
       </c>
       <c r="D80">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E80">
-        <v>89.388235294117649</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>89.379310344827587</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>15331214</v>
       </c>
@@ -1938,13 +1871,13 @@
       </c>
       <c r="D81">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E81">
         <v>87.941176470588232</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>15331219</v>
       </c>
@@ -1956,13 +1889,13 @@
       </c>
       <c r="D82">
         <f t="shared" si="1"/>
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E82">
         <v>80.294117647058826</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>15331222</v>
       </c>
@@ -1974,13 +1907,13 @@
       </c>
       <c r="D83">
         <f t="shared" si="1"/>
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E83">
         <v>84.117647058823536</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>15331225</v>
       </c>
@@ -1995,10 +1928,10 @@
         <v>15</v>
       </c>
       <c r="E84">
-        <v>98.188235294117646</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>98.229885057471265</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>15331226</v>
       </c>
@@ -2010,13 +1943,13 @@
       </c>
       <c r="D85">
         <f t="shared" si="1"/>
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>15331229</v>
       </c>
@@ -2031,10 +1964,10 @@
         <v>42</v>
       </c>
       <c r="E86">
-        <v>94.694117647058818</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>94.816091954022994</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>15331230</v>
       </c>
@@ -2046,13 +1979,13 @@
       </c>
       <c r="D87">
         <f t="shared" si="1"/>
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>15331231</v>
       </c>
@@ -2067,10 +2000,10 @@
         <v>10</v>
       </c>
       <c r="E88">
-        <v>98.835294117647052</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>98.862068965517238</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>15331238</v>
       </c>
@@ -2085,10 +2018,10 @@
         <v>19</v>
       </c>
       <c r="E89">
-        <v>97.670588235294119</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>97.724137931034477</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>15331241</v>
       </c>
@@ -2103,10 +2036,10 @@
         <v>19</v>
       </c>
       <c r="E90">
-        <v>97.670588235294119</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>97.724137931034477</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>15331242</v>
       </c>
@@ -2121,10 +2054,10 @@
         <v>42</v>
       </c>
       <c r="E91">
-        <v>94.694117647058818</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>94.816091954022994</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>15331244</v>
       </c>
@@ -2136,13 +2069,13 @@
       </c>
       <c r="D92">
         <f t="shared" si="1"/>
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E92">
         <v>83.088235294117652</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>15331245</v>
       </c>
@@ -2154,13 +2087,13 @@
       </c>
       <c r="D93">
         <f t="shared" si="1"/>
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E93">
         <v>86.911764705882348</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>15331248</v>
       </c>
@@ -2175,10 +2108,10 @@
         <v>42</v>
       </c>
       <c r="E94">
-        <v>94.694117647058818</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>94.816091954022994</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>15331250</v>
       </c>
@@ -2193,28 +2126,28 @@
         <v>50</v>
       </c>
       <c r="E95">
-        <v>93.658823529411762</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" s="1" customFormat="1">
+        <v>93.804597701149419</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>15331253</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96">
         <v>0.99747200000000003</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96">
         <v>0.99512400000000001</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D96">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E96" s="1">
-        <v>99.870588235294122</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>99.8735632183908</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>15331254</v>
       </c>
@@ -2226,13 +2159,13 @@
       </c>
       <c r="D97">
         <f t="shared" si="1"/>
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E97">
         <v>85.588235294117652</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>15331255</v>
       </c>
@@ -2247,10 +2180,10 @@
         <v>4</v>
       </c>
       <c r="E98">
-        <v>99.611764705882351</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>99.620689655172413</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>15331262</v>
       </c>
@@ -2265,28 +2198,28 @@
         <v>52</v>
       </c>
       <c r="E99">
-        <v>93.4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" s="1" customFormat="1">
+        <v>93.551724137931032</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>15331266</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100">
         <v>0.99662899999999999</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100">
         <v>0.99512400000000001</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D100">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E100" s="1">
-        <v>99.870588235294122</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>99.8735632183908</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>15331277</v>
       </c>
@@ -2298,13 +2231,13 @@
       </c>
       <c r="D101">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E101">
         <v>87.794117647058826</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>15331278</v>
       </c>
@@ -2316,13 +2249,13 @@
       </c>
       <c r="D102">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E102">
         <v>89.705882352941174</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>15331279</v>
       </c>
@@ -2334,13 +2267,13 @@
       </c>
       <c r="D103">
         <f t="shared" si="1"/>
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E103">
         <v>83.970588235294116</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>15331280</v>
       </c>
@@ -2355,10 +2288,10 @@
         <v>42</v>
       </c>
       <c r="E104">
-        <v>94.694117647058818</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>94.816091954022994</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>15331281</v>
       </c>
@@ -2373,10 +2306,10 @@
         <v>31</v>
       </c>
       <c r="E105">
-        <v>96.117647058823536</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>96.206896551724142</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>15331282</v>
       </c>
@@ -2388,13 +2321,13 @@
       </c>
       <c r="D106">
         <f t="shared" si="1"/>
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E106">
         <v>85.294117647058826</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>15331288</v>
       </c>
@@ -2406,13 +2339,13 @@
       </c>
       <c r="D107">
         <f t="shared" si="1"/>
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E107">
         <v>80.882352941176464</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>15331289</v>
       </c>
@@ -2427,10 +2360,10 @@
         <v>19</v>
       </c>
       <c r="E108">
-        <v>97.670588235294119</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <v>97.724137931034477</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>15331291</v>
       </c>
@@ -2445,10 +2378,10 @@
         <v>6</v>
       </c>
       <c r="E109">
-        <v>99.352941176470594</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>99.367816091954026</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>15331292</v>
       </c>
@@ -2460,31 +2393,31 @@
       </c>
       <c r="D110">
         <f t="shared" si="1"/>
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E110">
         <v>83.235294117647058</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>15331293</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>0.99157200000000001</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>0.99114999999999998</v>
       </c>
       <c r="D111">
         <f t="shared" si="1"/>
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="E111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>91.022988505747122</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>15331294</v>
       </c>
@@ -2499,10 +2432,10 @@
         <v>10</v>
       </c>
       <c r="E112">
-        <v>98.835294117647052</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <v>98.862068965517238</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>15331297</v>
       </c>
@@ -2514,13 +2447,13 @@
       </c>
       <c r="D113">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E113">
         <v>84.852941176470594</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>15331300</v>
       </c>
@@ -2535,10 +2468,10 @@
         <v>68</v>
       </c>
       <c r="E114">
-        <v>91.329411764705881</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>91.52873563218391</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>15331301</v>
       </c>
@@ -2550,13 +2483,13 @@
       </c>
       <c r="D115">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E115">
         <v>88.970588235294116</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>15331303</v>
       </c>
@@ -2568,13 +2501,13 @@
       </c>
       <c r="D116">
         <f t="shared" si="1"/>
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E116">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>15331308</v>
       </c>
@@ -2589,10 +2522,10 @@
         <v>31</v>
       </c>
       <c r="E117">
-        <v>96.117647058823536</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <v>96.206896551724142</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>15331309</v>
       </c>
@@ -2604,23 +2537,23 @@
       </c>
       <c r="D118">
         <f t="shared" si="1"/>
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E118">
         <v>83.82352941176471</v>
       </c>
     </row>
-    <row r="119" spans="1:5" s="1" customFormat="1">
+    <row r="119" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>15331312</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119">
         <v>0.99578599999999995</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C119">
         <v>0.99566600000000005</v>
       </c>
-      <c r="D119" s="1">
+      <c r="D119">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2628,7 +2561,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>15331314</v>
       </c>
@@ -2643,10 +2576,10 @@
         <v>19</v>
       </c>
       <c r="E120">
-        <v>97.670588235294119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <v>97.724137931034477</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>15331315</v>
       </c>
@@ -2658,13 +2591,13 @@
       </c>
       <c r="D121">
         <f t="shared" si="1"/>
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E121">
         <v>85.147058823529406</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>15331316</v>
       </c>
@@ -2676,13 +2609,13 @@
       </c>
       <c r="D122">
         <f t="shared" si="1"/>
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E122">
         <v>85.147058823529406</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>15331317</v>
       </c>
@@ -2694,13 +2627,13 @@
       </c>
       <c r="D123">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E123">
         <v>89.705882352941174</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>15331321</v>
       </c>
@@ -2715,10 +2648,10 @@
         <v>15</v>
       </c>
       <c r="E124">
-        <v>98.188235294117646</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <v>98.229885057471265</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>15331322</v>
       </c>
@@ -2730,13 +2663,13 @@
       </c>
       <c r="D125">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E125">
         <v>81.470588235294116</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>15331323</v>
       </c>
@@ -2748,13 +2681,13 @@
       </c>
       <c r="D126">
         <f t="shared" si="1"/>
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E126">
         <v>81.911764705882348</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>15331324</v>
       </c>
@@ -2766,13 +2699,13 @@
       </c>
       <c r="D127">
         <f t="shared" si="1"/>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E127">
         <v>89.264705882352942</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>15331326</v>
       </c>
@@ -2784,13 +2717,13 @@
       </c>
       <c r="D128">
         <f t="shared" si="1"/>
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E128">
         <v>84.264705882352942</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>15331327</v>
       </c>
@@ -2802,13 +2735,13 @@
       </c>
       <c r="D129">
         <f t="shared" si="1"/>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E129">
         <v>89.852941176470594</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>15331328</v>
       </c>
@@ -2820,13 +2753,13 @@
       </c>
       <c r="D130">
         <f t="shared" si="1"/>
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E130">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>15331336</v>
       </c>
@@ -2841,10 +2774,10 @@
         <v>31</v>
       </c>
       <c r="E131">
-        <v>96.117647058823536</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <v>96.206896551724142</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>15331342</v>
       </c>
@@ -2856,13 +2789,13 @@
       </c>
       <c r="D132">
         <f t="shared" si="2"/>
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E132">
         <v>81.617647058823536</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>15331345</v>
       </c>
@@ -2874,13 +2807,13 @@
       </c>
       <c r="D133">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E133">
         <v>88.382352941176464</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>15331346</v>
       </c>
@@ -2895,10 +2828,10 @@
         <v>62</v>
       </c>
       <c r="E134">
-        <v>92.10588235294118</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+        <v>92.287356321839084</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>15331349</v>
       </c>
@@ -2913,10 +2846,10 @@
         <v>10</v>
       </c>
       <c r="E135">
-        <v>98.835294117647052</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+        <v>98.862068965517238</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>15331350</v>
       </c>
@@ -2931,10 +2864,10 @@
         <v>31</v>
       </c>
       <c r="E136">
-        <v>96.117647058823536</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+        <v>96.206896551724142</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>15331351</v>
       </c>
@@ -2949,10 +2882,10 @@
         <v>19</v>
       </c>
       <c r="E137">
-        <v>97.670588235294119</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+        <v>97.724137931034477</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>15331356</v>
       </c>
@@ -2967,10 +2900,10 @@
         <v>62</v>
       </c>
       <c r="E138">
-        <v>92.10588235294118</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <v>92.287356321839084</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>15331357</v>
       </c>
@@ -2982,13 +2915,13 @@
       </c>
       <c r="D139">
         <f t="shared" si="2"/>
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E139">
         <v>83.382352941176464</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>15331367</v>
       </c>
@@ -3003,10 +2936,10 @@
         <v>19</v>
       </c>
       <c r="E140">
-        <v>97.670588235294119</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+        <v>97.724137931034477</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>15331368</v>
       </c>
@@ -3021,10 +2954,10 @@
         <v>72</v>
       </c>
       <c r="E141">
-        <v>90.811764705882354</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
+        <v>91.022988505747122</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>15331369</v>
       </c>
@@ -3036,13 +2969,13 @@
       </c>
       <c r="D142">
         <f t="shared" si="2"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E142">
-        <v>90.035294117647055</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+        <v>90.137931034482762</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>15331377</v>
       </c>
@@ -3054,13 +2987,13 @@
       </c>
       <c r="D143">
         <f t="shared" si="2"/>
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E143">
         <v>81.029411764705884</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>15331378</v>
       </c>
@@ -3072,13 +3005,13 @@
       </c>
       <c r="D144">
         <f t="shared" si="2"/>
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E144">
         <v>81.17647058823529</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>15331379</v>
       </c>
@@ -3090,13 +3023,13 @@
       </c>
       <c r="D145">
         <f t="shared" si="2"/>
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E145">
         <v>85.588235294117652</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>15331380</v>
       </c>
@@ -3111,10 +3044,10 @@
         <v>7</v>
       </c>
       <c r="E146">
-        <v>99.223529411764702</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+        <v>99.241379310344826</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>15331389</v>
       </c>
@@ -3126,13 +3059,13 @@
       </c>
       <c r="D147">
         <f t="shared" si="2"/>
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E147">
         <v>83.529411764705884</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>15331392</v>
       </c>
@@ -3147,10 +3080,10 @@
         <v>50</v>
       </c>
       <c r="E148">
-        <v>93.658823529411762</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+        <v>93.804597701149419</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>15331395</v>
       </c>
@@ -3165,10 +3098,10 @@
         <v>7</v>
       </c>
       <c r="E149">
-        <v>99.223529411764702</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+        <v>99.241379310344826</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>15331397</v>
       </c>
@@ -3180,13 +3113,13 @@
       </c>
       <c r="D150">
         <f t="shared" si="2"/>
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E150">
         <v>85.735294117647058</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>15331398</v>
       </c>
@@ -3198,13 +3131,13 @@
       </c>
       <c r="D151">
         <f t="shared" si="2"/>
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E151">
         <v>82.352941176470594</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>15331402</v>
       </c>
@@ -3216,13 +3149,13 @@
       </c>
       <c r="D152">
         <f t="shared" si="2"/>
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E152">
         <v>86.911764705882348</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>15331404</v>
       </c>
@@ -3234,13 +3167,13 @@
       </c>
       <c r="D153">
         <f t="shared" si="2"/>
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E153">
         <v>83.088235294117652</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>15331405</v>
       </c>
@@ -3252,13 +3185,13 @@
       </c>
       <c r="D154">
         <f t="shared" si="2"/>
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E154">
         <v>83.088235294117652</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>15331406</v>
       </c>
@@ -3273,10 +3206,10 @@
         <v>15</v>
       </c>
       <c r="E155">
-        <v>98.188235294117646</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+        <v>98.229885057471265</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>15331409</v>
       </c>
@@ -3291,10 +3224,10 @@
         <v>31</v>
       </c>
       <c r="E156">
-        <v>96.117647058823536</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+        <v>96.206896551724142</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>15331410</v>
       </c>
@@ -3306,13 +3239,13 @@
       </c>
       <c r="D157">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E157">
         <v>88.67647058823529</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>15331411</v>
       </c>
@@ -3324,13 +3257,13 @@
       </c>
       <c r="D158">
         <f t="shared" si="2"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E158">
-        <v>90.035294117647055</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+        <v>90.137931034482762</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>15331412</v>
       </c>
@@ -3342,13 +3275,13 @@
       </c>
       <c r="D159">
         <f t="shared" si="2"/>
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E159">
         <v>87.352941176470594</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>15331413</v>
       </c>
@@ -3360,13 +3293,13 @@
       </c>
       <c r="D160">
         <f t="shared" si="2"/>
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E160">
         <v>81.764705882352942</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>15331418</v>
       </c>
@@ -3378,13 +3311,13 @@
       </c>
       <c r="D161">
         <f t="shared" si="2"/>
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E161">
         <v>86.32352941176471</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>15331420</v>
       </c>
@@ -3396,13 +3329,13 @@
       </c>
       <c r="D162">
         <f t="shared" si="2"/>
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E162">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>15331423</v>
       </c>
@@ -3414,13 +3347,13 @@
       </c>
       <c r="D163">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E163">
         <v>88.382352941176464</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>15331425</v>
       </c>
@@ -3435,10 +3368,10 @@
         <v>52</v>
       </c>
       <c r="E164">
-        <v>93.4</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+        <v>93.551724137931032</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>15331428</v>
       </c>
@@ -3450,13 +3383,13 @@
       </c>
       <c r="D165">
         <f t="shared" si="2"/>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E165">
         <v>89.264705882352942</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>15331444</v>
       </c>
@@ -3471,10 +3404,10 @@
         <v>10</v>
       </c>
       <c r="E166">
-        <v>98.835294117647052</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
+        <v>98.862068965517238</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>15331447</v>
       </c>
@@ -3489,10 +3422,10 @@
         <v>19</v>
       </c>
       <c r="E167">
-        <v>97.670588235294119</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
+        <v>97.724137931034477</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>15331448</v>
       </c>
@@ -3507,10 +3440,10 @@
         <v>31</v>
       </c>
       <c r="E168">
-        <v>96.117647058823536</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
+        <v>96.206896551724142</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>15331449</v>
       </c>
@@ -3522,13 +3455,13 @@
       </c>
       <c r="D169">
         <f t="shared" si="2"/>
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E169">
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>15332014</v>
       </c>
@@ -3540,7 +3473,7 @@
       </c>
       <c r="D170">
         <f t="shared" si="2"/>
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E170">
         <v>70</v>

--- a/homework/期中作业-分数-学生.xlsx
+++ b/homework/期中作业-分数-学生.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1AFE40FD-48C7-48F8-BD4D-310ADC386919}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5E6A5C34-1FF4-415E-9E33-98A6D5440796}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -411,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E170"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -449,7 +449,7 @@
       </c>
       <c r="D2">
         <f>RANK(C2,C$2:C$170)</f>
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>99.494252873563212</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -488,7 +488,7 @@
         <v>72</v>
       </c>
       <c r="E4">
-        <v>91.022988505747122</v>
+        <v>91.125</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -506,7 +506,7 @@
         <v>77</v>
       </c>
       <c r="E5">
-        <v>90.390804597701148</v>
+        <v>90.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -524,7 +524,7 @@
         <v>58</v>
       </c>
       <c r="E6">
-        <v>92.793103448275858</v>
+        <v>92.875</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -542,7 +542,7 @@
         <v>82</v>
       </c>
       <c r="E7">
-        <v>89.758620689655174</v>
+        <v>89.875</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -560,7 +560,7 @@
         <v>71</v>
       </c>
       <c r="E8">
-        <v>91.149425287356323</v>
+        <v>91.25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -578,7 +578,7 @@
         <v>58</v>
       </c>
       <c r="E9">
-        <v>92.793103448275858</v>
+        <v>92.875</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -593,7 +593,7 @@
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>58</v>
       </c>
       <c r="E11">
-        <v>92.793103448275858</v>
+        <v>92.875</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -632,7 +632,7 @@
         <v>19</v>
       </c>
       <c r="E12">
-        <v>97.724137931034477</v>
+        <v>97.75</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -650,7 +650,7 @@
         <v>55</v>
       </c>
       <c r="E13">
-        <v>93.172413793103445</v>
+        <v>93.25</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -668,7 +668,7 @@
         <v>19</v>
       </c>
       <c r="E14">
-        <v>97.724137931034477</v>
+        <v>97.75</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -686,7 +686,7 @@
         <v>31</v>
       </c>
       <c r="E15">
-        <v>96.206896551724142</v>
+        <v>96.25</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -704,7 +704,7 @@
         <v>58</v>
       </c>
       <c r="E16">
-        <v>92.793103448275858</v>
+        <v>92.875</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -722,7 +722,7 @@
         <v>76</v>
       </c>
       <c r="E17">
-        <v>90.517241379310349</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -737,7 +737,7 @@
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E18">
         <v>86.470588235294116</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E19">
         <v>86.17647058823529</v>
@@ -773,7 +773,7 @@
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>68</v>
       </c>
       <c r="E21">
-        <v>91.52873563218391</v>
+        <v>91.625</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -812,7 +812,7 @@
         <v>31</v>
       </c>
       <c r="E22">
-        <v>96.206896551724142</v>
+        <v>96.25</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -830,7 +830,7 @@
         <v>31</v>
       </c>
       <c r="E23">
-        <v>96.206896551724142</v>
+        <v>96.25</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -848,7 +848,7 @@
         <v>42</v>
       </c>
       <c r="E24">
-        <v>94.816091954022994</v>
+        <v>94.875</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -863,7 +863,7 @@
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E25">
         <v>86.17647058823529</v>
@@ -881,7 +881,7 @@
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E26">
         <v>84.705882352941174</v>
@@ -902,7 +902,7 @@
         <v>31</v>
       </c>
       <c r="E27">
-        <v>96.206896551724142</v>
+        <v>96.25</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -917,7 +917,7 @@
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -935,7 +935,7 @@
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E29">
         <v>80.147058823529406</v>
@@ -953,7 +953,7 @@
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E30">
         <v>87.647058823529406</v>
@@ -971,7 +971,7 @@
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E31">
         <v>88.67647058823529</v>
@@ -989,7 +989,7 @@
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E32">
         <v>80.588235294117652</v>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E33">
         <v>87.205882352941174</v>
@@ -1028,7 +1028,7 @@
         <v>55</v>
       </c>
       <c r="E34">
-        <v>93.172413793103445</v>
+        <v>93.25</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E35">
         <v>87.647058823529406</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E36">
         <v>90</v>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E37">
         <v>82.647058823529406</v>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E38">
         <v>83.82352941176471</v>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E39">
         <v>89.705882352941174</v>
@@ -1136,7 +1136,7 @@
         <v>42</v>
       </c>
       <c r="E40">
-        <v>94.816091954022994</v>
+        <v>94.875</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1154,7 +1154,7 @@
         <v>19</v>
       </c>
       <c r="E41">
-        <v>97.724137931034477</v>
+        <v>97.75</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1162,17 +1162,17 @@
         <v>15331100</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>0.99283600000000005</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>0.99042799999999998</v>
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>89.875</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1190,7 +1190,7 @@
         <v>55</v>
       </c>
       <c r="E43">
-        <v>93.172413793103445</v>
+        <v>93.25</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E44">
         <v>84.558823529411768</v>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="D45">
         <f t="shared" si="0"/>
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E45">
         <v>80.441176470588232</v>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="D46">
         <f t="shared" si="0"/>
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E46">
         <v>80.735294117647058</v>
@@ -1262,7 +1262,7 @@
         <v>42</v>
       </c>
       <c r="E47">
-        <v>94.816091954022994</v>
+        <v>94.875</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1280,7 +1280,7 @@
         <v>19</v>
       </c>
       <c r="E48">
-        <v>97.724137931034477</v>
+        <v>97.75</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1298,7 +1298,7 @@
         <v>62</v>
       </c>
       <c r="E49">
-        <v>92.287356321839084</v>
+        <v>92.375</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1316,7 +1316,7 @@
         <v>70</v>
       </c>
       <c r="E50">
-        <v>91.275862068965523</v>
+        <v>91.375</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1334,7 +1334,7 @@
         <v>72</v>
       </c>
       <c r="E51">
-        <v>91.022988505747122</v>
+        <v>91.125</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1352,7 +1352,7 @@
         <v>52</v>
       </c>
       <c r="E52">
-        <v>93.551724137931032</v>
+        <v>93.625</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -1370,7 +1370,7 @@
         <v>62</v>
       </c>
       <c r="E53">
-        <v>92.287356321839084</v>
+        <v>92.375</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -1388,7 +1388,7 @@
         <v>82</v>
       </c>
       <c r="E54">
-        <v>89.758620689655174</v>
+        <v>89.875</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -1406,7 +1406,7 @@
         <v>82</v>
       </c>
       <c r="E55">
-        <v>89.758620689655174</v>
+        <v>89.875</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="D56">
         <f t="shared" si="0"/>
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="D57">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E57">
         <v>86.911764705882348</v>
@@ -1460,7 +1460,7 @@
         <v>77</v>
       </c>
       <c r="E58">
-        <v>90.390804597701148</v>
+        <v>90.5</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -1475,10 +1475,10 @@
       </c>
       <c r="D59">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E59">
-        <v>89.1264367816092</v>
+        <v>89.125</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="D60">
         <f t="shared" si="0"/>
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E60">
         <v>82.205882352941174</v>
@@ -1514,7 +1514,7 @@
         <v>62</v>
       </c>
       <c r="E61">
-        <v>92.287356321839084</v>
+        <v>92.375</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="D62">
         <f t="shared" si="0"/>
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E62">
         <v>81.32352941176471</v>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="D63">
         <f t="shared" si="0"/>
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E63">
         <v>82.058823529411768</v>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="D64">
         <f t="shared" si="0"/>
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E64">
         <v>84.411764705882348</v>
@@ -1586,7 +1586,7 @@
         <v>15</v>
       </c>
       <c r="E65">
-        <v>98.229885057471265</v>
+        <v>98.25</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -1604,7 +1604,7 @@
         <v>79</v>
       </c>
       <c r="E66">
-        <v>90.137931034482762</v>
+        <v>90.25</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="D67">
         <f t="shared" ref="D67:D130" si="1">RANK(C67,C$2:C$170)</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E67">
         <v>88.82352941176471</v>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="D68">
         <f t="shared" si="1"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E68">
         <v>88.382352941176464</v>
@@ -1658,7 +1658,7 @@
         <v>19</v>
       </c>
       <c r="E69">
-        <v>97.724137931034477</v>
+        <v>97.75</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="D70">
         <f t="shared" si="1"/>
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E70">
         <v>82.5</v>
@@ -1694,7 +1694,7 @@
         <v>62</v>
       </c>
       <c r="E71">
-        <v>92.287356321839084</v>
+        <v>92.375</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -1712,7 +1712,7 @@
         <v>31</v>
       </c>
       <c r="E72">
-        <v>96.206896551724142</v>
+        <v>96.25</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -1730,7 +1730,7 @@
         <v>42</v>
       </c>
       <c r="E73">
-        <v>94.816091954022994</v>
+        <v>94.875</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="D74">
         <f t="shared" si="1"/>
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E74">
         <v>85.882352941176464</v>
@@ -1763,10 +1763,10 @@
       </c>
       <c r="D75">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E75">
-        <v>89.379310344827587</v>
+        <v>89.375</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -1784,7 +1784,7 @@
         <v>10</v>
       </c>
       <c r="E76">
-        <v>98.862068965517238</v>
+        <v>98.875</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="D77">
         <f t="shared" si="1"/>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E77">
         <v>87.058823529411768</v>
@@ -1820,7 +1820,7 @@
         <v>7</v>
       </c>
       <c r="E78">
-        <v>99.241379310344826</v>
+        <v>99.25</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="D79">
         <f t="shared" si="1"/>
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1853,10 +1853,10 @@
       </c>
       <c r="D80">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E80">
-        <v>89.379310344827587</v>
+        <v>89.375</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="D81">
         <f t="shared" si="1"/>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E81">
         <v>87.941176470588232</v>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="D82">
         <f t="shared" si="1"/>
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E82">
         <v>80.294117647058826</v>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="D83">
         <f t="shared" si="1"/>
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E83">
         <v>84.117647058823536</v>
@@ -1928,7 +1928,7 @@
         <v>15</v>
       </c>
       <c r="E84">
-        <v>98.229885057471265</v>
+        <v>98.25</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="D85">
         <f t="shared" si="1"/>
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1964,7 +1964,7 @@
         <v>42</v>
       </c>
       <c r="E86">
-        <v>94.816091954022994</v>
+        <v>94.875</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="D87">
         <f t="shared" si="1"/>
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>10</v>
       </c>
       <c r="E88">
-        <v>98.862068965517238</v>
+        <v>98.875</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -2018,7 +2018,7 @@
         <v>19</v>
       </c>
       <c r="E89">
-        <v>97.724137931034477</v>
+        <v>97.75</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -2036,7 +2036,7 @@
         <v>19</v>
       </c>
       <c r="E90">
-        <v>97.724137931034477</v>
+        <v>97.75</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -2054,7 +2054,7 @@
         <v>42</v>
       </c>
       <c r="E91">
-        <v>94.816091954022994</v>
+        <v>94.875</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="D92">
         <f t="shared" si="1"/>
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E92">
         <v>83.088235294117652</v>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="D93">
         <f t="shared" si="1"/>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E93">
         <v>86.911764705882348</v>
@@ -2108,7 +2108,7 @@
         <v>42</v>
       </c>
       <c r="E94">
-        <v>94.816091954022994</v>
+        <v>94.875</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -2126,7 +2126,7 @@
         <v>50</v>
       </c>
       <c r="E95">
-        <v>93.804597701149419</v>
+        <v>93.875</v>
       </c>
     </row>
     <row r="96" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2144,7 +2144,7 @@
         <v>2</v>
       </c>
       <c r="E96" s="1">
-        <v>99.8735632183908</v>
+        <v>99.875</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="D97">
         <f t="shared" si="1"/>
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E97">
         <v>85.588235294117652</v>
@@ -2180,7 +2180,7 @@
         <v>4</v>
       </c>
       <c r="E98">
-        <v>99.620689655172413</v>
+        <v>99.625</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -2198,7 +2198,7 @@
         <v>52</v>
       </c>
       <c r="E99">
-        <v>93.551724137931032</v>
+        <v>93.625</v>
       </c>
     </row>
     <row r="100" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2216,7 +2216,7 @@
         <v>2</v>
       </c>
       <c r="E100" s="1">
-        <v>99.8735632183908</v>
+        <v>99.875</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -2231,7 +2231,7 @@
       </c>
       <c r="D101">
         <f t="shared" si="1"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E101">
         <v>87.794117647058826</v>
@@ -2249,7 +2249,7 @@
       </c>
       <c r="D102">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E102">
         <v>89.705882352941174</v>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="D103">
         <f t="shared" si="1"/>
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E103">
         <v>83.970588235294116</v>
@@ -2288,7 +2288,7 @@
         <v>42</v>
       </c>
       <c r="E104">
-        <v>94.816091954022994</v>
+        <v>94.875</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -2306,7 +2306,7 @@
         <v>31</v>
       </c>
       <c r="E105">
-        <v>96.206896551724142</v>
+        <v>96.25</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="D106">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E106">
         <v>85.294117647058826</v>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="D107">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E107">
         <v>80.882352941176464</v>
@@ -2360,7 +2360,7 @@
         <v>19</v>
       </c>
       <c r="E108">
-        <v>97.724137931034477</v>
+        <v>97.75</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -2378,7 +2378,7 @@
         <v>6</v>
       </c>
       <c r="E109">
-        <v>99.367816091954026</v>
+        <v>99.375</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="D110">
         <f t="shared" si="1"/>
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E110">
         <v>83.235294117647058</v>
@@ -2414,7 +2414,7 @@
         <v>72</v>
       </c>
       <c r="E111">
-        <v>91.022988505747122</v>
+        <v>91.125</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -2432,7 +2432,7 @@
         <v>10</v>
       </c>
       <c r="E112">
-        <v>98.862068965517238</v>
+        <v>98.875</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="D113">
         <f t="shared" si="1"/>
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E113">
         <v>84.852941176470594</v>
@@ -2468,7 +2468,7 @@
         <v>68</v>
       </c>
       <c r="E114">
-        <v>91.52873563218391</v>
+        <v>91.625</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="D115">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E115">
         <v>88.970588235294116</v>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="D116">
         <f t="shared" si="1"/>
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -2522,7 +2522,7 @@
         <v>31</v>
       </c>
       <c r="E117">
-        <v>96.206896551724142</v>
+        <v>96.25</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -2537,7 +2537,7 @@
       </c>
       <c r="D118">
         <f t="shared" si="1"/>
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E118">
         <v>83.82352941176471</v>
@@ -2576,7 +2576,7 @@
         <v>19</v>
       </c>
       <c r="E120">
-        <v>97.724137931034477</v>
+        <v>97.75</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="D121">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E121">
         <v>85.147058823529406</v>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="D122">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E122">
         <v>85.147058823529406</v>
@@ -2627,7 +2627,7 @@
       </c>
       <c r="D123">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E123">
         <v>89.705882352941174</v>
@@ -2648,7 +2648,7 @@
         <v>15</v>
       </c>
       <c r="E124">
-        <v>98.229885057471265</v>
+        <v>98.25</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -2663,7 +2663,7 @@
       </c>
       <c r="D125">
         <f t="shared" si="1"/>
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E125">
         <v>81.470588235294116</v>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="D126">
         <f t="shared" si="1"/>
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E126">
         <v>81.911764705882348</v>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="D127">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E127">
         <v>89.264705882352942</v>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="D128">
         <f t="shared" si="1"/>
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E128">
         <v>84.264705882352942</v>
@@ -2735,7 +2735,7 @@
       </c>
       <c r="D129">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E129">
         <v>89.852941176470594</v>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="D130">
         <f t="shared" si="1"/>
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -2774,7 +2774,7 @@
         <v>31</v>
       </c>
       <c r="E131">
-        <v>96.206896551724142</v>
+        <v>96.25</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="D132">
         <f t="shared" si="2"/>
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E132">
         <v>81.617647058823536</v>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="D133">
         <f t="shared" si="2"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E133">
         <v>88.382352941176464</v>
@@ -2828,7 +2828,7 @@
         <v>62</v>
       </c>
       <c r="E134">
-        <v>92.287356321839084</v>
+        <v>92.375</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -2846,7 +2846,7 @@
         <v>10</v>
       </c>
       <c r="E135">
-        <v>98.862068965517238</v>
+        <v>98.875</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -2864,7 +2864,7 @@
         <v>31</v>
       </c>
       <c r="E136">
-        <v>96.206896551724142</v>
+        <v>96.25</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -2882,7 +2882,7 @@
         <v>19</v>
       </c>
       <c r="E137">
-        <v>97.724137931034477</v>
+        <v>97.75</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -2900,7 +2900,7 @@
         <v>62</v>
       </c>
       <c r="E138">
-        <v>92.287356321839084</v>
+        <v>92.375</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="D139">
         <f t="shared" si="2"/>
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E139">
         <v>83.382352941176464</v>
@@ -2936,7 +2936,7 @@
         <v>19</v>
       </c>
       <c r="E140">
-        <v>97.724137931034477</v>
+        <v>97.75</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -2954,7 +2954,7 @@
         <v>72</v>
       </c>
       <c r="E141">
-        <v>91.022988505747122</v>
+        <v>91.125</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -2972,7 +2972,7 @@
         <v>79</v>
       </c>
       <c r="E142">
-        <v>90.137931034482762</v>
+        <v>90.25</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -2987,7 +2987,7 @@
       </c>
       <c r="D143">
         <f t="shared" si="2"/>
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E143">
         <v>81.029411764705884</v>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="D144">
         <f t="shared" si="2"/>
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E144">
         <v>81.17647058823529</v>
@@ -3023,7 +3023,7 @@
       </c>
       <c r="D145">
         <f t="shared" si="2"/>
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E145">
         <v>85.588235294117652</v>
@@ -3044,7 +3044,7 @@
         <v>7</v>
       </c>
       <c r="E146">
-        <v>99.241379310344826</v>
+        <v>99.25</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="D147">
         <f t="shared" si="2"/>
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E147">
         <v>83.529411764705884</v>
@@ -3080,7 +3080,7 @@
         <v>50</v>
       </c>
       <c r="E148">
-        <v>93.804597701149419</v>
+        <v>93.875</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -3098,7 +3098,7 @@
         <v>7</v>
       </c>
       <c r="E149">
-        <v>99.241379310344826</v>
+        <v>99.25</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -3113,7 +3113,7 @@
       </c>
       <c r="D150">
         <f t="shared" si="2"/>
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E150">
         <v>85.735294117647058</v>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="D151">
         <f t="shared" si="2"/>
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E151">
         <v>82.352941176470594</v>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="D152">
         <f t="shared" si="2"/>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E152">
         <v>86.911764705882348</v>
@@ -3167,7 +3167,7 @@
       </c>
       <c r="D153">
         <f t="shared" si="2"/>
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E153">
         <v>83.088235294117652</v>
@@ -3185,7 +3185,7 @@
       </c>
       <c r="D154">
         <f t="shared" si="2"/>
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E154">
         <v>83.088235294117652</v>
@@ -3206,7 +3206,7 @@
         <v>15</v>
       </c>
       <c r="E155">
-        <v>98.229885057471265</v>
+        <v>98.25</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -3224,7 +3224,7 @@
         <v>31</v>
       </c>
       <c r="E156">
-        <v>96.206896551724142</v>
+        <v>96.25</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -3239,7 +3239,7 @@
       </c>
       <c r="D157">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E157">
         <v>88.67647058823529</v>
@@ -3260,7 +3260,7 @@
         <v>79</v>
       </c>
       <c r="E158">
-        <v>90.137931034482762</v>
+        <v>90.25</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="D159">
         <f t="shared" si="2"/>
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E159">
         <v>87.352941176470594</v>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="D160">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E160">
         <v>81.764705882352942</v>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="D161">
         <f t="shared" si="2"/>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E161">
         <v>86.32352941176471</v>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="D162">
         <f t="shared" si="2"/>
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="D163">
         <f t="shared" si="2"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E163">
         <v>88.382352941176464</v>
@@ -3368,7 +3368,7 @@
         <v>52</v>
       </c>
       <c r="E164">
-        <v>93.551724137931032</v>
+        <v>93.625</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="D165">
         <f t="shared" si="2"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E165">
         <v>89.264705882352942</v>
@@ -3404,7 +3404,7 @@
         <v>10</v>
       </c>
       <c r="E166">
-        <v>98.862068965517238</v>
+        <v>98.875</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -3422,7 +3422,7 @@
         <v>19</v>
       </c>
       <c r="E167">
-        <v>97.724137931034477</v>
+        <v>97.75</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -3440,7 +3440,7 @@
         <v>31</v>
       </c>
       <c r="E168">
-        <v>96.206896551724142</v>
+        <v>96.25</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
@@ -3455,7 +3455,7 @@
       </c>
       <c r="D169">
         <f t="shared" si="2"/>
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -3473,7 +3473,7 @@
       </c>
       <c r="D170">
         <f t="shared" si="2"/>
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E170">
         <v>70</v>

--- a/homework/期中作业-分数-学生.xlsx
+++ b/homework/期中作业-分数-学生.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5E6A5C34-1FF4-415E-9E33-98A6D5440796}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62E40F6-414D-45C9-8519-41A52CC17AFF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <definedName name="name" localSheetId="0">Sheet1!$A$1:$A$170</definedName>
     <definedName name="name_result2" localSheetId="0">Sheet1!$A$1:$C$170</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>学号</t>
   </si>
@@ -71,11 +71,22 @@
   <si>
     <t>分数</t>
   </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该同学迟交期中作业，不纳入排名，public score: 0.99440，private score: 0.99578，由于迟交，最终判定成绩为70。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="0.0_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -118,7 +129,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -409,18 +427,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E170"/>
+  <dimension ref="A1:H170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,8 +455,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>11331213</v>
       </c>
@@ -451,11 +473,13 @@
         <f>RANK(C2,C$2:C$170)</f>
         <v>158</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G2" s="5"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>12330216</v>
       </c>
@@ -469,11 +493,13 @@
         <f t="shared" ref="D3:D66" si="0">RANK(C3,C$2:C$170)</f>
         <v>5</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>99.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G3" s="5"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>14323088</v>
       </c>
@@ -487,11 +513,13 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>91.125</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G4" s="5"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>15310022</v>
       </c>
@@ -505,11 +533,13 @@
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>90.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G5" s="5"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>15310053</v>
       </c>
@@ -523,11 +553,13 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>92.875</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G6" s="5"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>15331001</v>
       </c>
@@ -541,11 +573,13 @@
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>89.875</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G7" s="5"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>15331002</v>
       </c>
@@ -559,11 +593,13 @@
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>91.25</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G8" s="5"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>15331003</v>
       </c>
@@ -577,11 +613,13 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>92.875</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G9" s="5"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>15331005</v>
       </c>
@@ -595,11 +633,13 @@
         <f t="shared" si="0"/>
         <v>158</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G10" s="5"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>15331007</v>
       </c>
@@ -613,11 +653,13 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>92.875</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G11" s="5"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>15331010</v>
       </c>
@@ -631,11 +673,13 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>97.75</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G12" s="5"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>15331012</v>
       </c>
@@ -649,11 +693,13 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>93.25</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G13" s="5"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>15331014</v>
       </c>
@@ -667,11 +713,13 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>97.75</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G14" s="5"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15331015</v>
       </c>
@@ -685,11 +733,13 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>96.25</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G15" s="5"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15331016</v>
       </c>
@@ -703,11 +753,13 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>92.875</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G16" s="5"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15331017</v>
       </c>
@@ -721,11 +773,13 @@
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>90.625</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G17" s="5"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>15331019</v>
       </c>
@@ -739,11 +793,13 @@
         <f t="shared" si="0"/>
         <v>113</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>86.470588235294116</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G18" s="5"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>15331022</v>
       </c>
@@ -757,11 +813,13 @@
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>86.17647058823529</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G19" s="5"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>15331037</v>
       </c>
@@ -775,11 +833,13 @@
         <f t="shared" si="0"/>
         <v>158</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G20" s="5"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>15331042</v>
       </c>
@@ -793,11 +853,13 @@
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>91.625</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G21" s="5"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>15331043</v>
       </c>
@@ -811,11 +873,13 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>96.25</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G22" s="5"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>15331044</v>
       </c>
@@ -829,11 +893,13 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <v>96.25</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G23" s="5"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>15331046</v>
       </c>
@@ -847,11 +913,13 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <v>94.875</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G24" s="5"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>15331051</v>
       </c>
@@ -865,11 +933,13 @@
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <v>86.17647058823529</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G25" s="5"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>15331053</v>
       </c>
@@ -883,11 +953,13 @@
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <v>84.705882352941174</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G26" s="5"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>15331062</v>
       </c>
@@ -901,11 +973,13 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="3">
         <v>96.25</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G27" s="5"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>15331065</v>
       </c>
@@ -919,11 +993,13 @@
         <f t="shared" si="0"/>
         <v>158</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G28" s="5"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>15331067</v>
       </c>
@@ -937,11 +1013,13 @@
         <f t="shared" si="0"/>
         <v>156</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <v>80.147058823529406</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G29" s="5"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>15331068</v>
       </c>
@@ -955,11 +1033,13 @@
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <v>87.647058823529406</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G30" s="5"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>15331070</v>
       </c>
@@ -973,11 +1053,13 @@
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <v>88.67647058823529</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G31" s="5"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>15331072</v>
       </c>
@@ -991,11 +1073,13 @@
         <f t="shared" si="0"/>
         <v>153</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="3">
         <v>80.588235294117652</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G32" s="5"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>15331073</v>
       </c>
@@ -1009,11 +1093,13 @@
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="3">
         <v>87.205882352941174</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G33" s="5"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>15331074</v>
       </c>
@@ -1027,11 +1113,13 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="3">
         <v>93.25</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G34" s="5"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>15331075</v>
       </c>
@@ -1045,11 +1133,13 @@
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="3">
         <v>87.647058823529406</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G35" s="5"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>15331082</v>
       </c>
@@ -1063,11 +1153,13 @@
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="3">
         <v>90</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G36" s="5"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>15331089</v>
       </c>
@@ -1081,11 +1173,13 @@
         <f t="shared" si="0"/>
         <v>139</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="3">
         <v>82.647058823529406</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G37" s="5"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>15331094</v>
       </c>
@@ -1099,11 +1193,13 @@
         <f t="shared" si="0"/>
         <v>131</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="3">
         <v>83.82352941176471</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G38" s="5"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>15331095</v>
       </c>
@@ -1117,11 +1213,13 @@
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="3">
         <v>89.705882352941174</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G39" s="5"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>15331096</v>
       </c>
@@ -1135,11 +1233,13 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="3">
         <v>94.875</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G40" s="5"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>15331099</v>
       </c>
@@ -1153,11 +1253,13 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="3">
         <v>97.75</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G41" s="5"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>15331100</v>
       </c>
@@ -1171,11 +1273,13 @@
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="3">
         <v>89.875</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G42" s="5"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>15331106</v>
       </c>
@@ -1189,11 +1293,13 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="3">
         <v>93.25</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G43" s="5"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>15331108</v>
       </c>
@@ -1207,11 +1313,13 @@
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="3">
         <v>84.558823529411768</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G44" s="5"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>15331109</v>
       </c>
@@ -1225,11 +1333,13 @@
         <f t="shared" si="0"/>
         <v>154</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="3">
         <v>80.441176470588232</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G45" s="5"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>15331110</v>
       </c>
@@ -1243,11 +1353,13 @@
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="3">
         <v>80.735294117647058</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G46" s="5"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>15331112</v>
       </c>
@@ -1261,11 +1373,13 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="3">
         <v>94.875</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G47" s="5"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>15331115</v>
       </c>
@@ -1279,11 +1393,13 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="3">
         <v>97.75</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G48" s="5"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>15331116</v>
       </c>
@@ -1297,11 +1413,13 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="3">
         <v>92.375</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G49" s="5"/>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>15331119</v>
       </c>
@@ -1315,11 +1433,13 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="3">
         <v>91.375</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G50" s="5"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>15331121</v>
       </c>
@@ -1333,11 +1453,13 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="3">
         <v>91.125</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G51" s="5"/>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>15331122</v>
       </c>
@@ -1351,11 +1473,13 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="3">
         <v>93.625</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G52" s="5"/>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>15331124</v>
       </c>
@@ -1369,11 +1493,13 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="3">
         <v>92.375</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G53" s="5"/>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>15331128</v>
       </c>
@@ -1387,11 +1513,13 @@
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="3">
         <v>89.875</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G54" s="5"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>15331129</v>
       </c>
@@ -1405,11 +1533,13 @@
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="3">
         <v>89.875</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G55" s="5"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>15331133</v>
       </c>
@@ -1423,11 +1553,13 @@
         <f t="shared" si="0"/>
         <v>158</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G56" s="5"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>15331134</v>
       </c>
@@ -1441,11 +1573,13 @@
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="3">
         <v>86.911764705882348</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G57" s="5"/>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>15331135</v>
       </c>
@@ -1459,11 +1593,13 @@
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="3">
         <v>90.5</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G58" s="5"/>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>15331137</v>
       </c>
@@ -1477,11 +1613,13 @@
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="3">
         <v>89.125</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G59" s="5"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>15331138</v>
       </c>
@@ -1495,11 +1633,13 @@
         <f t="shared" si="0"/>
         <v>142</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="3">
         <v>82.205882352941174</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G60" s="5"/>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>15331141</v>
       </c>
@@ -1513,11 +1653,13 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="3">
         <v>92.375</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G61" s="5"/>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>15331154</v>
       </c>
@@ -1531,11 +1673,13 @@
         <f t="shared" si="0"/>
         <v>148</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="3">
         <v>81.32352941176471</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G62" s="5"/>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>15331155</v>
       </c>
@@ -1549,11 +1693,13 @@
         <f t="shared" si="0"/>
         <v>143</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="3">
         <v>82.058823529411768</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G63" s="5"/>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>15331157</v>
       </c>
@@ -1567,11 +1713,13 @@
         <f t="shared" si="0"/>
         <v>127</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="3">
         <v>84.411764705882348</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G64" s="5"/>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>15331159</v>
       </c>
@@ -1585,11 +1733,13 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="3">
         <v>98.25</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G65" s="5"/>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>15331166</v>
       </c>
@@ -1603,11 +1753,13 @@
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="3">
         <v>90.25</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G66" s="5"/>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>15331168</v>
       </c>
@@ -1621,11 +1773,13 @@
         <f t="shared" ref="D67:D130" si="1">RANK(C67,C$2:C$170)</f>
         <v>97</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="3">
         <v>88.82352941176471</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G67" s="5"/>
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>15331173</v>
       </c>
@@ -1639,11 +1793,13 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="3">
         <v>88.382352941176464</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G68" s="5"/>
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>15331175</v>
       </c>
@@ -1657,11 +1813,13 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="3">
         <v>97.75</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G69" s="5"/>
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>15331176</v>
       </c>
@@ -1675,11 +1833,13 @@
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="3">
         <v>82.5</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G70" s="5"/>
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>15331185</v>
       </c>
@@ -1693,11 +1853,13 @@
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="3">
         <v>92.375</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G71" s="5"/>
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>15331187</v>
       </c>
@@ -1711,11 +1873,13 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="3">
         <v>96.25</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G72" s="5"/>
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>15331191</v>
       </c>
@@ -1729,11 +1893,13 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="3">
         <v>94.875</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G73" s="5"/>
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>15331192</v>
       </c>
@@ -1747,11 +1913,13 @@
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="3">
         <v>85.882352941176464</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G74" s="5"/>
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>15331194</v>
       </c>
@@ -1765,11 +1933,13 @@
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="3">
         <v>89.375</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G75" s="5"/>
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>15331195</v>
       </c>
@@ -1783,11 +1953,13 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="3">
         <v>98.875</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G76" s="5"/>
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>15331197</v>
       </c>
@@ -1801,11 +1973,13 @@
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="3">
         <v>87.058823529411768</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G77" s="5"/>
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>15331200</v>
       </c>
@@ -1819,11 +1993,13 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="3">
         <v>99.25</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G78" s="5"/>
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>15331201</v>
       </c>
@@ -1837,11 +2013,16 @@
         <f t="shared" si="1"/>
         <v>158</v>
       </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E79" s="3">
+        <v>70</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79" s="5"/>
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>15331208</v>
       </c>
@@ -1855,11 +2036,13 @@
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="3">
         <v>89.375</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G80" s="5"/>
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>15331214</v>
       </c>
@@ -1873,11 +2056,13 @@
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="3">
         <v>87.941176470588232</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G81" s="5"/>
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>15331219</v>
       </c>
@@ -1891,11 +2076,13 @@
         <f t="shared" si="1"/>
         <v>155</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="3">
         <v>80.294117647058826</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G82" s="5"/>
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>15331222</v>
       </c>
@@ -1909,11 +2096,13 @@
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="3">
         <v>84.117647058823536</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G83" s="5"/>
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>15331225</v>
       </c>
@@ -1927,11 +2116,13 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="3">
         <v>98.25</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G84" s="5"/>
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>15331226</v>
       </c>
@@ -1945,11 +2136,13 @@
         <f t="shared" si="1"/>
         <v>158</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G85" s="5"/>
+      <c r="H85" s="3"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>15331229</v>
       </c>
@@ -1963,11 +2156,13 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="3">
         <v>94.875</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G86" s="5"/>
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>15331230</v>
       </c>
@@ -1981,11 +2176,13 @@
         <f t="shared" si="1"/>
         <v>158</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G87" s="5"/>
+      <c r="H87" s="3"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>15331231</v>
       </c>
@@ -1999,11 +2196,13 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="3">
         <v>98.875</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G88" s="5"/>
+      <c r="H88" s="3"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>15331238</v>
       </c>
@@ -2017,11 +2216,13 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="3">
         <v>97.75</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G89" s="5"/>
+      <c r="H89" s="3"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>15331241</v>
       </c>
@@ -2035,11 +2236,13 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="3">
         <v>97.75</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G90" s="5"/>
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>15331242</v>
       </c>
@@ -2053,11 +2256,13 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="3">
         <v>94.875</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G91" s="5"/>
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>15331244</v>
       </c>
@@ -2071,11 +2276,13 @@
         <f t="shared" si="1"/>
         <v>136</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="3">
         <v>83.088235294117652</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G92" s="5"/>
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>15331245</v>
       </c>
@@ -2089,11 +2296,13 @@
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="3">
         <v>86.911764705882348</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G93" s="5"/>
+      <c r="H93" s="3"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>15331248</v>
       </c>
@@ -2107,11 +2316,13 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="3">
         <v>94.875</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G94" s="5"/>
+      <c r="H94" s="3"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>15331250</v>
       </c>
@@ -2125,11 +2336,13 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="3">
         <v>93.875</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G95" s="5"/>
+      <c r="H95" s="3"/>
+    </row>
+    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>15331253</v>
       </c>
@@ -2143,11 +2356,13 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E96" s="1">
+      <c r="E96" s="4">
         <v>99.875</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G96" s="6"/>
+      <c r="H96" s="3"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>15331254</v>
       </c>
@@ -2161,11 +2376,13 @@
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="3">
         <v>85.588235294117652</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G97" s="5"/>
+      <c r="H97" s="3"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>15331255</v>
       </c>
@@ -2179,11 +2396,13 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="3">
         <v>99.625</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G98" s="5"/>
+      <c r="H98" s="3"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>15331262</v>
       </c>
@@ -2197,11 +2416,13 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="3">
         <v>93.625</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G99" s="5"/>
+      <c r="H99" s="3"/>
+    </row>
+    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>15331266</v>
       </c>
@@ -2215,11 +2436,13 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E100" s="1">
+      <c r="E100" s="4">
         <v>99.875</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G100" s="6"/>
+      <c r="H100" s="3"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>15331277</v>
       </c>
@@ -2233,11 +2456,13 @@
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="3">
         <v>87.794117647058826</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G101" s="5"/>
+      <c r="H101" s="3"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>15331278</v>
       </c>
@@ -2251,11 +2476,13 @@
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="3">
         <v>89.705882352941174</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G102" s="5"/>
+      <c r="H102" s="3"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>15331279</v>
       </c>
@@ -2269,11 +2496,13 @@
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="3">
         <v>83.970588235294116</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G103" s="5"/>
+      <c r="H103" s="3"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>15331280</v>
       </c>
@@ -2287,11 +2516,13 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="3">
         <v>94.875</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G104" s="5"/>
+      <c r="H104" s="3"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>15331281</v>
       </c>
@@ -2305,11 +2536,13 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="3">
         <v>96.25</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G105" s="5"/>
+      <c r="H105" s="3"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>15331282</v>
       </c>
@@ -2323,11 +2556,13 @@
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="3">
         <v>85.294117647058826</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G106" s="5"/>
+      <c r="H106" s="3"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>15331288</v>
       </c>
@@ -2341,11 +2576,13 @@
         <f t="shared" si="1"/>
         <v>151</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="3">
         <v>80.882352941176464</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G107" s="5"/>
+      <c r="H107" s="3"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>15331289</v>
       </c>
@@ -2359,11 +2596,13 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="3">
         <v>97.75</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G108" s="5"/>
+      <c r="H108" s="3"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>15331291</v>
       </c>
@@ -2377,11 +2616,13 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="3">
         <v>99.375</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G109" s="5"/>
+      <c r="H109" s="3"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>15331292</v>
       </c>
@@ -2395,11 +2636,13 @@
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="3">
         <v>83.235294117647058</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G110" s="5"/>
+      <c r="H110" s="3"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>15331293</v>
       </c>
@@ -2413,11 +2656,13 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="3">
         <v>91.125</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G111" s="5"/>
+      <c r="H111" s="3"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>15331294</v>
       </c>
@@ -2431,11 +2676,13 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="3">
         <v>98.875</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G112" s="5"/>
+      <c r="H112" s="3"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>15331297</v>
       </c>
@@ -2449,11 +2696,13 @@
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="3">
         <v>84.852941176470594</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G113" s="5"/>
+      <c r="H113" s="3"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>15331300</v>
       </c>
@@ -2467,11 +2716,13 @@
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="3">
         <v>91.625</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G114" s="5"/>
+      <c r="H114" s="3"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>15331301</v>
       </c>
@@ -2485,11 +2736,13 @@
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="3">
         <v>88.970588235294116</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G115" s="5"/>
+      <c r="H115" s="3"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>15331303</v>
       </c>
@@ -2503,11 +2756,13 @@
         <f t="shared" si="1"/>
         <v>158</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G116" s="5"/>
+      <c r="H116" s="3"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>15331308</v>
       </c>
@@ -2521,11 +2776,13 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="3">
         <v>96.25</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G117" s="5"/>
+      <c r="H117" s="3"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>15331309</v>
       </c>
@@ -2539,11 +2796,13 @@
         <f t="shared" si="1"/>
         <v>131</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="3">
         <v>83.82352941176471</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G118" s="5"/>
+      <c r="H118" s="3"/>
+    </row>
+    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>15331312</v>
       </c>
@@ -2557,11 +2816,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E119" s="1">
+      <c r="E119" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G119" s="6"/>
+      <c r="H119" s="3"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>15331314</v>
       </c>
@@ -2575,11 +2836,13 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="3">
         <v>97.75</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G120" s="5"/>
+      <c r="H120" s="3"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>15331315</v>
       </c>
@@ -2593,11 +2856,13 @@
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="3">
         <v>85.147058823529406</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G121" s="5"/>
+      <c r="H121" s="3"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>15331316</v>
       </c>
@@ -2611,11 +2876,13 @@
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="3">
         <v>85.147058823529406</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G122" s="5"/>
+      <c r="H122" s="3"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>15331317</v>
       </c>
@@ -2629,11 +2896,13 @@
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="3">
         <v>89.705882352941174</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G123" s="5"/>
+      <c r="H123" s="3"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>15331321</v>
       </c>
@@ -2647,11 +2916,13 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="3">
         <v>98.25</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G124" s="5"/>
+      <c r="H124" s="3"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>15331322</v>
       </c>
@@ -2665,11 +2936,13 @@
         <f t="shared" si="1"/>
         <v>147</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="3">
         <v>81.470588235294116</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G125" s="5"/>
+      <c r="H125" s="3"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>15331323</v>
       </c>
@@ -2683,11 +2956,13 @@
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="3">
         <v>81.911764705882348</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G126" s="5"/>
+      <c r="H126" s="3"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>15331324</v>
       </c>
@@ -2701,11 +2976,13 @@
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="3">
         <v>89.264705882352942</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G127" s="5"/>
+      <c r="H127" s="3"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>15331326</v>
       </c>
@@ -2719,11 +2996,13 @@
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="3">
         <v>84.264705882352942</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G128" s="5"/>
+      <c r="H128" s="3"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>15331327</v>
       </c>
@@ -2737,11 +3016,13 @@
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="3">
         <v>89.852941176470594</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G129" s="5"/>
+      <c r="H129" s="3"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>15331328</v>
       </c>
@@ -2755,11 +3036,13 @@
         <f t="shared" si="1"/>
         <v>158</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G130" s="5"/>
+      <c r="H130" s="3"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>15331336</v>
       </c>
@@ -2773,11 +3056,13 @@
         <f t="shared" ref="D131:D170" si="2">RANK(C131,C$2:C$170)</f>
         <v>31</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="3">
         <v>96.25</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G131" s="5"/>
+      <c r="H131" s="3"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>15331342</v>
       </c>
@@ -2791,11 +3076,13 @@
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
-      <c r="E132">
+      <c r="E132" s="3">
         <v>81.617647058823536</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G132" s="5"/>
+      <c r="H132" s="3"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>15331345</v>
       </c>
@@ -2809,11 +3096,13 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="E133">
+      <c r="E133" s="3">
         <v>88.382352941176464</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G133" s="5"/>
+      <c r="H133" s="3"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>15331346</v>
       </c>
@@ -2827,11 +3116,13 @@
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="E134">
+      <c r="E134" s="3">
         <v>92.375</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G134" s="5"/>
+      <c r="H134" s="3"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>15331349</v>
       </c>
@@ -2845,11 +3136,13 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="3">
         <v>98.875</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G135" s="5"/>
+      <c r="H135" s="3"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>15331350</v>
       </c>
@@ -2863,11 +3156,13 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="E136">
+      <c r="E136" s="3">
         <v>96.25</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G136" s="5"/>
+      <c r="H136" s="3"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>15331351</v>
       </c>
@@ -2881,11 +3176,13 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="E137">
+      <c r="E137" s="3">
         <v>97.75</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G137" s="5"/>
+      <c r="H137" s="3"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>15331356</v>
       </c>
@@ -2899,11 +3196,13 @@
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="E138">
+      <c r="E138" s="3">
         <v>92.375</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G138" s="5"/>
+      <c r="H138" s="3"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>15331357</v>
       </c>
@@ -2917,11 +3216,13 @@
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="3">
         <v>83.382352941176464</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G139" s="5"/>
+      <c r="H139" s="3"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>15331367</v>
       </c>
@@ -2935,11 +3236,13 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="3">
         <v>97.75</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G140" s="5"/>
+      <c r="H140" s="3"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>15331368</v>
       </c>
@@ -2953,11 +3256,13 @@
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="E141">
+      <c r="E141" s="3">
         <v>91.125</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G141" s="5"/>
+      <c r="H141" s="3"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>15331369</v>
       </c>
@@ -2971,11 +3276,13 @@
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="E142">
+      <c r="E142" s="3">
         <v>90.25</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G142" s="5"/>
+      <c r="H142" s="3"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>15331377</v>
       </c>
@@ -2989,11 +3296,13 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="E143">
+      <c r="E143" s="3">
         <v>81.029411764705884</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G143" s="5"/>
+      <c r="H143" s="3"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>15331378</v>
       </c>
@@ -3007,11 +3316,13 @@
         <f t="shared" si="2"/>
         <v>149</v>
       </c>
-      <c r="E144">
+      <c r="E144" s="3">
         <v>81.17647058823529</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G144" s="5"/>
+      <c r="H144" s="3"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>15331379</v>
       </c>
@@ -3025,11 +3336,13 @@
         <f t="shared" si="2"/>
         <v>119</v>
       </c>
-      <c r="E145">
+      <c r="E145" s="3">
         <v>85.588235294117652</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G145" s="5"/>
+      <c r="H145" s="3"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>15331380</v>
       </c>
@@ -3043,11 +3356,13 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="E146">
+      <c r="E146" s="3">
         <v>99.25</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G146" s="5"/>
+      <c r="H146" s="3"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>15331389</v>
       </c>
@@ -3061,11 +3376,13 @@
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
-      <c r="E147">
+      <c r="E147" s="3">
         <v>83.529411764705884</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G147" s="5"/>
+      <c r="H147" s="3"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>15331392</v>
       </c>
@@ -3079,11 +3396,13 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="E148">
+      <c r="E148" s="3">
         <v>93.875</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G148" s="5"/>
+      <c r="H148" s="3"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>15331395</v>
       </c>
@@ -3097,11 +3416,13 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="E149">
+      <c r="E149" s="3">
         <v>99.25</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G149" s="5"/>
+      <c r="H149" s="3"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>15331397</v>
       </c>
@@ -3115,11 +3436,13 @@
         <f t="shared" si="2"/>
         <v>118</v>
       </c>
-      <c r="E150">
+      <c r="E150" s="3">
         <v>85.735294117647058</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G150" s="5"/>
+      <c r="H150" s="3"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>15331398</v>
       </c>
@@ -3133,11 +3456,13 @@
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
-      <c r="E151">
+      <c r="E151" s="3">
         <v>82.352941176470594</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G151" s="5"/>
+      <c r="H151" s="3"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>15331402</v>
       </c>
@@ -3151,11 +3476,13 @@
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="E152">
+      <c r="E152" s="3">
         <v>86.911764705882348</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G152" s="5"/>
+      <c r="H152" s="3"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>15331404</v>
       </c>
@@ -3169,11 +3496,13 @@
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
-      <c r="E153">
+      <c r="E153" s="3">
         <v>83.088235294117652</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G153" s="5"/>
+      <c r="H153" s="3"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>15331405</v>
       </c>
@@ -3187,11 +3516,13 @@
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
-      <c r="E154">
+      <c r="E154" s="3">
         <v>83.088235294117652</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G154" s="5"/>
+      <c r="H154" s="3"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>15331406</v>
       </c>
@@ -3205,11 +3536,13 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="E155">
+      <c r="E155" s="3">
         <v>98.25</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G155" s="5"/>
+      <c r="H155" s="3"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>15331409</v>
       </c>
@@ -3223,11 +3556,13 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="E156">
+      <c r="E156" s="3">
         <v>96.25</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G156" s="5"/>
+      <c r="H156" s="3"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>15331410</v>
       </c>
@@ -3241,11 +3576,13 @@
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="E157">
+      <c r="E157" s="3">
         <v>88.67647058823529</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G157" s="5"/>
+      <c r="H157" s="3"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>15331411</v>
       </c>
@@ -3259,11 +3596,13 @@
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="E158">
+      <c r="E158" s="3">
         <v>90.25</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G158" s="5"/>
+      <c r="H158" s="3"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>15331412</v>
       </c>
@@ -3277,11 +3616,13 @@
         <f t="shared" si="2"/>
         <v>107</v>
       </c>
-      <c r="E159">
+      <c r="E159" s="3">
         <v>87.352941176470594</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G159" s="5"/>
+      <c r="H159" s="3"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>15331413</v>
       </c>
@@ -3295,11 +3636,13 @@
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
-      <c r="E160">
+      <c r="E160" s="3">
         <v>81.764705882352942</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G160" s="5"/>
+      <c r="H160" s="3"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>15331418</v>
       </c>
@@ -3313,11 +3656,13 @@
         <f t="shared" si="2"/>
         <v>114</v>
       </c>
-      <c r="E161">
+      <c r="E161" s="3">
         <v>86.32352941176471</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G161" s="5"/>
+      <c r="H161" s="3"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>15331420</v>
       </c>
@@ -3331,11 +3676,13 @@
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
-      <c r="E162">
+      <c r="E162" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G162" s="5"/>
+      <c r="H162" s="3"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>15331423</v>
       </c>
@@ -3349,11 +3696,13 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="E163">
+      <c r="E163" s="3">
         <v>88.382352941176464</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G163" s="5"/>
+      <c r="H163" s="3"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>15331425</v>
       </c>
@@ -3367,11 +3716,13 @@
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="E164">
+      <c r="E164" s="3">
         <v>93.625</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G164" s="5"/>
+      <c r="H164" s="3"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>15331428</v>
       </c>
@@ -3385,11 +3736,13 @@
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="E165">
+      <c r="E165" s="3">
         <v>89.264705882352942</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G165" s="5"/>
+      <c r="H165" s="3"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>15331444</v>
       </c>
@@ -3403,11 +3756,13 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="E166">
+      <c r="E166" s="3">
         <v>98.875</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G166" s="5"/>
+      <c r="H166" s="3"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>15331447</v>
       </c>
@@ -3421,11 +3776,13 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="E167">
+      <c r="E167" s="3">
         <v>97.75</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G167" s="5"/>
+      <c r="H167" s="3"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>15331448</v>
       </c>
@@ -3439,11 +3796,13 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="E168">
+      <c r="E168" s="3">
         <v>96.25</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G168" s="5"/>
+      <c r="H168" s="3"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>15331449</v>
       </c>
@@ -3457,11 +3816,13 @@
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
-      <c r="E169">
+      <c r="E169" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G169" s="5"/>
+      <c r="H169" s="3"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>15332014</v>
       </c>
@@ -3475,12 +3836,15 @@
         <f t="shared" si="2"/>
         <v>157</v>
       </c>
-      <c r="E170">
+      <c r="E170" s="3">
         <v>70</v>
       </c>
+      <c r="G170" s="5"/>
+      <c r="H170" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>